--- a/data/trans_dic/P39A2_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P39A2_2023-Provincia-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>65,1; 76,27</t>
+          <t>64,66; 76,2</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>64,07; 72,32</t>
+          <t>63,93; 72,52</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>66,06; 73,22</t>
+          <t>65,81; 73,17</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>65,67; 75,84</t>
+          <t>66,01; 76,15</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>61,94; 69,75</t>
+          <t>62,13; 69,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>65,06; 71,44</t>
+          <t>64,92; 71,42</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>54,89; 66,39</t>
+          <t>54,81; 66,14</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>45,76; 55,48</t>
+          <t>45,21; 55,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>51,47; 58,87</t>
+          <t>51,54; 58,82</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>90,9; 96,9</t>
+          <t>90,71; 96,84</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>73,95; 93,42</t>
+          <t>74,26; 93,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>82,02; 94,12</t>
+          <t>81,64; 94,3</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>24,8; 37,1</t>
+          <t>24,82; 37,22</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,74; 25,44</t>
+          <t>16,83; 25,01</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>21,48; 28,75</t>
+          <t>21,58; 29,12</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>77,72; 86,96</t>
+          <t>77,43; 86,91</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>82,27; 89,17</t>
+          <t>82,52; 89,29</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>81,16; 86,99</t>
+          <t>81,3; 87,4</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>43,84; 53,49</t>
+          <t>44,19; 54,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>41,86; 71,48</t>
+          <t>41,79; 71,71</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>44,85; 64,94</t>
+          <t>45,43; 64,54</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>92,03; 96,26</t>
+          <t>91,99; 96,2</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>92,37; 95,8</t>
+          <t>92,5; 95,83</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>92,97; 95,63</t>
+          <t>93,08; 95,61</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>70,41; 74,2</t>
+          <t>70,26; 74,28</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>67,13; 72,26</t>
+          <t>67,05; 72,43</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>69,11; 72,29</t>
+          <t>69,15; 72,39</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P39A2_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P39A2_2023-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>64,66; 76,2</t>
+          <t>65,1; 76,27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>63,93; 72,52</t>
+          <t>64,07; 72,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>65,81; 73,17</t>
+          <t>66,06; 73,22</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>66,01; 76,15</t>
+          <t>65,67; 75,84</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>62,13; 69,66</t>
+          <t>61,94; 69,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>64,92; 71,42</t>
+          <t>65,06; 71,44</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>54,81; 66,14</t>
+          <t>54,89; 66,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>45,21; 55,54</t>
+          <t>45,76; 55,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>51,54; 58,82</t>
+          <t>51,47; 58,87</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>90,71; 96,84</t>
+          <t>90,9; 96,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>74,26; 93,49</t>
+          <t>73,95; 93,42</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>81,64; 94,3</t>
+          <t>82,02; 94,12</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>24,82; 37,22</t>
+          <t>24,8; 37,1</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,83; 25,01</t>
+          <t>16,74; 25,44</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>21,58; 29,12</t>
+          <t>21,48; 28,75</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>77,43; 86,91</t>
+          <t>77,72; 86,96</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>82,52; 89,29</t>
+          <t>82,27; 89,17</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>81,3; 87,4</t>
+          <t>81,16; 86,99</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>44,19; 54,0</t>
+          <t>43,84; 53,49</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>41,79; 71,71</t>
+          <t>41,86; 71,48</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>45,43; 64,54</t>
+          <t>44,85; 64,94</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>91,99; 96,2</t>
+          <t>92,03; 96,26</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>92,5; 95,83</t>
+          <t>92,37; 95,8</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>93,08; 95,61</t>
+          <t>92,97; 95,63</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>70,26; 74,28</t>
+          <t>70,41; 74,2</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>67,05; 72,43</t>
+          <t>67,13; 72,26</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>69,15; 72,39</t>
+          <t>69,11; 72,29</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P39A2_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P39A2_2023-Provincia-trans_dic.xlsx
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>70,65%</t>
+          <t>71,33%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>68,65%</t>
+          <t>68,83%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>69,64%</t>
+          <t>70,14%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>65,1; 76,27</t>
+          <t>65,15; 77,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>64,07; 72,32</t>
+          <t>64,15; 72,5</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>66,06; 73,22</t>
+          <t>66,39; 74,01</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>71,25%</t>
+          <t>71,76%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>65,82%</t>
+          <t>65,84%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>68,5%</t>
+          <t>68,88%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>65,67; 75,84</t>
+          <t>66,01; 76,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>61,94; 69,75</t>
+          <t>61,95; 69,74</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>65,06; 71,44</t>
+          <t>65,39; 71,88</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>60,51%</t>
+          <t>60,81%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>50,64%</t>
+          <t>50,52%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>55,36%</t>
+          <t>55,57%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>54,89; 66,39</t>
+          <t>55,2; 66,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>45,76; 55,48</t>
+          <t>45,67; 55,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>51,47; 58,87</t>
+          <t>51,63; 59,13</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>94,48%</t>
+          <t>94,5%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>88,23%</t>
+          <t>74,79%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>90,93%</t>
+          <t>82,68%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>90,9; 96,9</t>
+          <t>90,98; 96,94</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>73,95; 93,42</t>
+          <t>38,12; 93,25</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>82,02; 94,12</t>
+          <t>52,41; 93,96</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>30,26%</t>
+          <t>30,05%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>20,66%</t>
+          <t>20,38%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>25,03%</t>
+          <t>24,81%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>24,8; 37,1</t>
+          <t>24,54; 36,72</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,74; 25,44</t>
+          <t>16,7; 24,85</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>21,48; 28,75</t>
+          <t>21,35; 28,37</t>
         </is>
       </c>
     </row>
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>82,76%</t>
+          <t>83,03%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>86,19%</t>
+          <t>86,3%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>84,44%</t>
+          <t>84,6%</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>77,72; 86,96</t>
+          <t>78,06; 87,17</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>82,27; 89,17</t>
+          <t>82,43; 89,3</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>81,16; 86,99</t>
+          <t>81,38; 87,18</t>
         </is>
       </c>
     </row>
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>49,05%</t>
+          <t>48,69%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>51,98%</t>
+          <t>58,24%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>50,69%</t>
+          <t>54,21%</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>43,84; 53,49</t>
+          <t>43,26; 53,29</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>41,86; 71,48</t>
+          <t>41,86; 81,29</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>44,85; 64,94</t>
+          <t>44,79; 73,61</t>
         </is>
       </c>
     </row>
@@ -906,17 +906,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>94,48%</t>
+          <t>95,75%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>94,33%</t>
+          <t>94,34%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>94,4%</t>
+          <t>95,14%</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>92,03; 96,26</t>
+          <t>93,07; 98,35</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>92,37; 95,8</t>
+          <t>92,41; 95,76</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>92,97; 95,63</t>
+          <t>93,57; 97,2</t>
         </is>
       </c>
     </row>
@@ -956,17 +956,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>72,21%</t>
+          <t>73,4%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>68,96%</t>
+          <t>68,2%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>70,5%</t>
+          <t>70,76%</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>70,41; 74,2</t>
+          <t>70,6; 81,21</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>67,13; 72,26</t>
+          <t>64,16; 73,99</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>69,11; 72,29</t>
+          <t>68,05; 74,58</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P39A2_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P39A2_2023-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,7 +547,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -579,24 +580,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>65,15; 77,08</t>
+          <t>64,37; 76,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>64,15; 72,5</t>
+          <t>64,3; 73,04</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>66,39; 74,01</t>
+          <t>66,4; 73,86</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -629,24 +630,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>66,01; 76,33</t>
+          <t>66,89; 76,85</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>61,95; 69,74</t>
+          <t>62,0; 69,78</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>65,39; 71,88</t>
+          <t>65,43; 71,63</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>55,2; 66,8</t>
+          <t>54,66; 65,87</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>45,67; 55,4</t>
+          <t>45,88; 56,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>51,63; 59,13</t>
+          <t>51,72; 59,39</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>90,98; 96,94</t>
+          <t>90,83; 97,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>38,12; 93,25</t>
+          <t>42,0; 93,11</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>52,41; 93,96</t>
+          <t>51,73; 93,94</t>
         </is>
       </c>
     </row>
@@ -779,24 +780,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>24,54; 36,72</t>
+          <t>24,7; 36,73</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,7; 24,85</t>
+          <t>16,41; 24,34</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>21,35; 28,37</t>
+          <t>21,54; 28,6</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -829,24 +830,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>78,06; 87,17</t>
+          <t>77,92; 87,03</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>82,43; 89,3</t>
+          <t>82,48; 89,52</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>81,38; 87,18</t>
+          <t>81,76; 87,37</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>43,26; 53,29</t>
+          <t>43,55; 53,98</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>41,86; 81,29</t>
+          <t>41,71; 81,1</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>44,79; 73,61</t>
+          <t>45,03; 70,94</t>
         </is>
       </c>
     </row>
@@ -929,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>93,07; 98,35</t>
+          <t>93,25; 98,2</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>92,41; 95,76</t>
+          <t>92,5; 95,81</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>93,57; 97,2</t>
+          <t>93,63; 97,39</t>
         </is>
       </c>
     </row>
@@ -979,17 +980,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>70,6; 81,21</t>
+          <t>70,52; 80,25</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>64,16; 73,99</t>
+          <t>64,1; 74,0</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>68,05; 74,58</t>
+          <t>68,3; 75,17</t>
         </is>
       </c>
     </row>
@@ -1015,4 +1016,758 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que sí diría que sentirse débil mareado o a punto de desmayarse es un síntoma de que a alguien le está dando un ataque al corazón</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>368</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>597</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>221630</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>195277</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>416906</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>200011; 238679</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>182408; 207212</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>394704; 439054</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>257</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>441</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>698</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>364034</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>316939</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>680974</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>339333; 389849</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>298454; 335882</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>646867; 708200</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>401</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>169578</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>146479</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>316057</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>152427; 183679</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>133023; 162986</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>294145; 337800</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>431</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>646</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>230220</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>272905</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>503124</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>221279; 236386</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>153246; 339753</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>314816; 571658</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>52513</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>42088</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>94601</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>43166; 64177</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>33878; 50264</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>82135; 109029</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>266</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>322</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>588</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>203071</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>193647</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>396718</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>190571; 212832</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>185084; 200879</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>383443; 409718</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>247</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>590</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>277231</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>453623</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>730853</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>247947; 307322</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>324885; 631720</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>607188; 956422</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>652</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>925</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>1577</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>819518</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>622992</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>1442509</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>798086; 840526</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>610876; 632742</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>1419630; 1476661</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>2130</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>3145</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>5275</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>2337794</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>2243949</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>4581743</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>2245967; 2556099</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>2109104; 2434830</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>4422301; 4867367</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>